--- a/2024-01-02_UseCase_maturity_map_for_FSI.xlsx
+++ b/2024-01-02_UseCase_maturity_map_for_FSI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="217">
   <si>
     <t>unit</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Investor</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
   </si>
   <si>
     <t>Regulation</t>
-  </si>
-  <si>
-    <t>36</t>
   </si>
   <si>
     <t>37</t>
@@ -394,13 +388,10 @@
     <t xml:space="preserve">General Data Protection Regulation (GDPR) </t>
   </si>
   <si>
-    <t>Retail</t>
+    <t>Retail &amp; Corporate</t>
   </si>
   <si>
     <t>Consumer Experiences</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
   <si>
     <t>51</t>
@@ -418,9 +409,6 @@
     <t>Customer Targeting</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -433,28 +421,16 @@
     <t>Customer Onboarding &amp; Screening</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
     <t>Enhanced Due Diligence</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
     <t>Personalized Financial Planning</t>
-  </si>
-  <si>
-    <t>61</t>
   </si>
   <si>
     <t>62</t>
@@ -472,25 +448,13 @@
     <t>Customer Engagement</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
     <t>Differentiated Digital Experience</t>
   </si>
   <si>
-    <t>Corporate Institutional</t>
-  </si>
-  <si>
     <t>Client Experiences</t>
-  </si>
-  <si>
-    <t>67</t>
   </si>
   <si>
     <t>68</t>
@@ -561,9 +525,6 @@
 </t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
     <t>77</t>
   </si>
   <si>
@@ -632,61 +593,12 @@
     <t>Provide unified &amp; accurate data to fuel consistent reporting</t>
   </si>
   <si>
-    <t>86</t>
+    <t xml:space="preserve">Trade Activity Reporting
+</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
+    <t xml:space="preserve">Risk, Stress Testing, Capital Requirements
+</t>
   </si>
   <si>
     <t>label</t>
@@ -961,7 +873,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1422,11 +1345,11 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="1007844361"/>
-        <c:axId val="1318161100"/>
+        <c:axId val="1006922338"/>
+        <c:axId val="1456014823"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="1007844361"/>
+        <c:axId val="1006922338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -1493,10 +1416,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1318161100"/>
+        <c:crossAx val="1456014823"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1318161100"/>
+        <c:axId val="1456014823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -1563,7 +1486,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1007844361"/>
+        <c:crossAx val="1006922338"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1925,11 +1848,11 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="1832051188"/>
-        <c:axId val="451250887"/>
+        <c:axId val="1353853782"/>
+        <c:axId val="1639243751"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="1832051188"/>
+        <c:axId val="1353853782"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.0"/>
@@ -1996,10 +1919,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451250887"/>
+        <c:crossAx val="1639243751"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451250887"/>
+        <c:axId val="1639243751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="23.0"/>
@@ -2066,7 +1989,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1832051188"/>
+        <c:crossAx val="1353853782"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2453,11 +2376,45 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="2126479208"/>
-        <c:axId val="2124601923"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$88</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$E$88</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$F$88</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$88</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:axId val="198072223"/>
+        <c:axId val="1178074026"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="2126479208"/>
+        <c:axId val="198072223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -2524,10 +2481,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124601923"/>
+        <c:crossAx val="1178074026"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124601923"/>
+        <c:axId val="1178074026"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -2594,7 +2551,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126479208"/>
+        <c:crossAx val="198072223"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2990,11 +2947,45 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="994919212"/>
-        <c:axId val="633240055"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$88</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$H$88</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$I$88</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$88</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:axId val="397634231"/>
+        <c:axId val="1144842361"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="994919212"/>
+        <c:axId val="397634231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.0"/>
@@ -3061,10 +3052,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633240055"/>
+        <c:crossAx val="1144842361"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="633240055"/>
+        <c:axId val="1144842361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="23.0"/>
@@ -3131,7 +3122,1004 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994919212"/>
+        <c:crossAx val="397634231"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.744169094885173"/>
+          <c:y val="0.13444444444444445"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF">
+        <a:alpha val="0"/>
+      </a:srgbClr>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$88</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$E$88</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$F$88</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$88</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$89</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$E$89</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$F$89</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$89</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$90</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$E$90</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$F$90</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$90</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$91</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$E$91</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$F$91</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$91</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$92</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$E$92</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$F$92</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$92</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$93</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$E$93</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$F$93</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$93</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$94</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$E$94</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$F$94</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$94</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$95</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$E$95</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$F$95</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$95</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$96</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$E$96</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$F$96</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$96</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:axId val="898262185"/>
+        <c:axId val="1939054260"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="898262185"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1939054260"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1939054260"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="898262185"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.744169094885173"/>
+          <c:y val="0.13444444444444445"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF">
+        <a:alpha val="0"/>
+      </a:srgbClr>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.03169014084507042"/>
+          <c:y val="0.0706896551724138"/>
+          <c:w val="0.7440678736703095"/>
+          <c:h val="0.8934026701038369"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bubbleChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$88</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$H$88</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$I$88</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$88</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$89</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$H$89</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$I$89</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$89</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$90</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$H$90</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$I$90</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$90</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$91</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$H$91</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$I$91</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$91</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$92</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$H$92</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$I$92</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$92</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$93</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$H$93</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$I$93</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$93</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$94</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$H$94</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$I$94</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$94</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$95</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$H$95</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$I$95</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$95</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>use_case_master_radar!$C$96</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>use_case_master_radar!$H$96</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>use_case_master_radar!$I$96</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>use_case_master_radar!$H$96</c:f>
+            </c:numRef>
+          </c:bubbleSize>
+        </c:ser>
+        <c:axId val="985508767"/>
+        <c:axId val="472007863"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="985508767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472007863"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="472007863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="23.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="985508767"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3688,11 +4676,11 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="341362037"/>
-        <c:axId val="722862442"/>
+        <c:axId val="1464336021"/>
+        <c:axId val="145139103"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="341362037"/>
+        <c:axId val="1464336021"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -3759,10 +4747,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="722862442"/>
+        <c:crossAx val="145139103"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="722862442"/>
+        <c:axId val="145139103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -3829,7 +4817,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341362037"/>
+        <c:crossAx val="1464336021"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4454,11 +5442,11 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="2100762189"/>
-        <c:axId val="290620540"/>
+        <c:axId val="561106908"/>
+        <c:axId val="1324474504"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="2100762189"/>
+        <c:axId val="561106908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -4525,10 +5513,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290620540"/>
+        <c:crossAx val="1324474504"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290620540"/>
+        <c:axId val="1324474504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -4595,7 +5583,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100762189"/>
+        <c:crossAx val="561106908"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5424,11 +6412,11 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="587288284"/>
-        <c:axId val="1161584288"/>
+        <c:axId val="784855858"/>
+        <c:axId val="1873725729"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="587288284"/>
+        <c:axId val="784855858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -5495,10 +6483,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1161584288"/>
+        <c:crossAx val="1873725729"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1161584288"/>
+        <c:axId val="1873725729"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -5565,7 +6553,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587288284"/>
+        <c:crossAx val="784855858"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6403,11 +7391,11 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="991416367"/>
-        <c:axId val="1942405141"/>
+        <c:axId val="1869555730"/>
+        <c:axId val="1100126115"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="991416367"/>
+        <c:axId val="1869555730"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.0"/>
@@ -6474,10 +7462,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1942405141"/>
+        <c:crossAx val="1100126115"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1942405141"/>
+        <c:axId val="1100126115"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="23.0"/>
@@ -6544,7 +7532,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="991416367"/>
+        <c:crossAx val="1869555730"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7042,11 +8030,11 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="1685353237"/>
-        <c:axId val="1999676651"/>
+        <c:axId val="847324442"/>
+        <c:axId val="219569502"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="1685353237"/>
+        <c:axId val="847324442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.0"/>
@@ -7113,10 +8101,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1999676651"/>
+        <c:crossAx val="219569502"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1999676651"/>
+        <c:axId val="219569502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="23.0"/>
@@ -7183,7 +8171,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685353237"/>
+        <c:crossAx val="847324442"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7715,11 +8703,11 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="1222413629"/>
-        <c:axId val="595218299"/>
+        <c:axId val="1015724032"/>
+        <c:axId val="228979695"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="1222413629"/>
+        <c:axId val="1015724032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.0"/>
@@ -7786,10 +8774,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595218299"/>
+        <c:crossAx val="228979695"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="595218299"/>
+        <c:axId val="228979695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="23.0"/>
@@ -7856,7 +8844,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222413629"/>
+        <c:crossAx val="1015724032"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8490,11 +9478,11 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="1387370598"/>
-        <c:axId val="1293242681"/>
+        <c:axId val="751594539"/>
+        <c:axId val="1115624712"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="1387370598"/>
+        <c:axId val="751594539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.0"/>
@@ -8561,10 +9549,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1293242681"/>
+        <c:crossAx val="1115624712"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1293242681"/>
+        <c:axId val="1115624712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="23.0"/>
@@ -8631,7 +9619,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1387370598"/>
+        <c:crossAx val="751594539"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8984,11 +9972,11 @@
             </c:numRef>
           </c:bubbleSize>
         </c:ser>
-        <c:axId val="1266474396"/>
-        <c:axId val="272772948"/>
+        <c:axId val="2121941974"/>
+        <c:axId val="1590697246"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="1266474396"/>
+        <c:axId val="2121941974"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -9055,10 +10043,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272772948"/>
+        <c:crossAx val="1590697246"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272772948"/>
+        <c:axId val="1590697246"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -9125,7 +10113,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1266474396"/>
+        <c:crossAx val="2121941974"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -9422,8 +10410,8 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4086225" cy="2762250"/>
     <xdr:graphicFrame>
@@ -9447,8 +10435,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4057650" cy="2762250"/>
     <xdr:graphicFrame>
@@ -9463,6 +10451,56 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4086225" cy="2762250"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 13" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4057650" cy="2762250"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 14" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10689,7 +11727,7 @@
         <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -10730,10 +11768,10 @@
         <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E26" s="1">
         <v>1.0</v>
@@ -10752,7 +11790,7 @@
         <v>8.0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="3"/>
@@ -10771,10 +11809,10 @@
         <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E27" s="1">
         <v>5.0</v>
@@ -10793,7 +11831,7 @@
         <v>4.0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -10812,10 +11850,10 @@
         <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E28" s="1">
         <v>2.0</v>
@@ -10834,7 +11872,7 @@
         <v>14.0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -10853,10 +11891,10 @@
         <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E29" s="1">
         <v>2.0</v>
@@ -10875,7 +11913,7 @@
         <v>16.0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -10894,10 +11932,10 @@
         <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E30" s="1">
         <v>4.0</v>
@@ -10916,7 +11954,7 @@
         <v>18.0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -10935,10 +11973,10 @@
         <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E31" s="1">
         <v>5.0</v>
@@ -10957,7 +11995,7 @@
         <v>15.0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -10976,10 +12014,10 @@
         <v>63</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E32" s="1">
         <v>7.0</v>
@@ -10998,7 +12036,7 @@
         <v>15.0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -11017,10 +12055,10 @@
         <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E33" s="1">
         <v>9.0</v>
@@ -11039,7 +12077,7 @@
         <v>9.0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -11058,10 +12096,10 @@
         <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E34" s="1">
         <v>14.0</v>
@@ -11080,7 +12118,7 @@
         <v>12.0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -11099,10 +12137,10 @@
         <v>63</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E35" s="1">
         <v>11.0</v>
@@ -11121,7 +12159,7 @@
         <v>16.0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -11140,10 +12178,10 @@
         <v>63</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E36" s="1">
         <v>17.0</v>
@@ -11162,7 +12200,7 @@
         <v>14.0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -11181,10 +12219,10 @@
         <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E37" s="1">
         <v>18.0</v>
@@ -11203,7 +12241,7 @@
         <v>20.0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -11219,10 +12257,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -11260,13 +12298,13 @@
         <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E39" s="1">
         <v>1.0</v>
@@ -11285,7 +12323,7 @@
         <v>8.0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -11301,13 +12339,13 @@
         <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E40" s="1">
         <v>2.0</v>
@@ -11326,7 +12364,7 @@
         <v>7.0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -11342,13 +12380,13 @@
         <v>10</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E41" s="1">
         <v>7.0</v>
@@ -11367,7 +12405,7 @@
         <v>12.0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -11383,13 +12421,13 @@
         <v>10</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1">
         <v>10.0</v>
@@ -11408,7 +12446,7 @@
         <v>8.0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -11424,13 +12462,13 @@
         <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" s="1">
         <v>3.0</v>
@@ -11449,7 +12487,7 @@
         <v>13.0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -11465,13 +12503,13 @@
         <v>10</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E44" s="1">
         <v>7.0</v>
@@ -11490,7 +12528,7 @@
         <v>15.0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -11506,13 +12544,13 @@
         <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E45" s="1">
         <v>9.0</v>
@@ -11531,7 +12569,7 @@
         <v>13.0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -11547,13 +12585,13 @@
         <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E46" s="1">
         <v>9.0</v>
@@ -11572,7 +12610,7 @@
         <v>8.0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -11588,13 +12626,13 @@
         <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" s="1">
         <v>10.0</v>
@@ -11613,7 +12651,7 @@
         <v>4.0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -11629,13 +12667,13 @@
         <v>10</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E48" s="1">
         <v>12.0</v>
@@ -11654,7 +12692,7 @@
         <v>19.0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -11670,13 +12708,13 @@
         <v>10</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E49" s="1">
         <v>18.0</v>
@@ -11695,7 +12733,7 @@
         <v>18.0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -11711,13 +12749,13 @@
         <v>10</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E50" s="1">
         <v>17.0</v>
@@ -11736,7 +12774,7 @@
         <v>15.0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -11752,13 +12790,13 @@
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E51" s="1">
         <v>19.0</v>
@@ -11777,7 +12815,7 @@
         <v>12.0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -11790,13 +12828,13 @@
     </row>
     <row r="52" ht="10.5" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -11831,16 +12869,16 @@
     </row>
     <row r="53" ht="10.5" customHeight="1">
       <c r="A53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="D53" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E53" s="1">
         <v>1.0</v>
@@ -11859,7 +12897,7 @@
         <v>12.0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -11872,16 +12910,16 @@
     </row>
     <row r="54" ht="10.5" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E54" s="1">
         <v>2.0</v>
@@ -11900,7 +12938,7 @@
         <v>14.0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -11913,16 +12951,16 @@
     </row>
     <row r="55" ht="10.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="1">
         <v>2.0</v>
@@ -11941,7 +12979,7 @@
         <v>16.0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -11954,16 +12992,16 @@
     </row>
     <row r="56" ht="10.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E56" s="1">
         <v>7.0</v>
@@ -11982,7 +13020,7 @@
         <v>14.0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -11995,16 +13033,16 @@
     </row>
     <row r="57" ht="10.5" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E57" s="1">
         <v>4.0</v>
@@ -12023,7 +13061,7 @@
         <v>8.0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -12036,16 +13074,16 @@
     </row>
     <row r="58" ht="10.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1">
         <v>5.0</v>
@@ -12064,7 +13102,7 @@
         <v>11.0</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -12077,16 +13115,16 @@
     </row>
     <row r="59" ht="10.5" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="1">
         <v>9.0</v>
@@ -12105,7 +13143,7 @@
         <v>10.0</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -12118,16 +13156,16 @@
     </row>
     <row r="60" ht="10.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E60" s="1">
         <v>13.0</v>
@@ -12146,7 +13184,7 @@
         <v>16.0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -12159,16 +13197,16 @@
     </row>
     <row r="61" ht="10.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E61" s="1">
         <v>3.0</v>
@@ -12187,7 +13225,7 @@
         <v>9.0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -12200,16 +13238,16 @@
     </row>
     <row r="62" ht="10.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E62" s="1">
         <v>11.0</v>
@@ -12228,7 +13266,7 @@
         <v>18.0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -12241,16 +13279,16 @@
     </row>
     <row r="63" ht="10.5" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E63" s="1">
         <v>17.0</v>
@@ -12269,7 +13307,7 @@
         <v>12.0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -12282,16 +13320,16 @@
     </row>
     <row r="64" ht="10.5" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E64" s="1">
         <v>8.0</v>
@@ -12310,7 +13348,7 @@
         <v>18.0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -12323,16 +13361,16 @@
     </row>
     <row r="65" ht="10.5" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E65" s="1">
         <v>12.0</v>
@@ -12351,7 +13389,7 @@
         <v>9.0</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -12364,13 +13402,13 @@
     </row>
     <row r="66" ht="10.5" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>42</v>
@@ -12392,7 +13430,7 @@
         <v>11.0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -12405,16 +13443,16 @@
     </row>
     <row r="67" ht="10.5" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="1">
         <v>14.0</v>
@@ -12433,7 +13471,7 @@
         <v>18.0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -12446,16 +13484,16 @@
     </row>
     <row r="68" ht="10.5" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E68" s="1">
         <v>17.0</v>
@@ -12474,7 +13512,7 @@
         <v>14.0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -12487,13 +13525,13 @@
     </row>
     <row r="69" ht="10.5" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -12528,16 +13566,16 @@
     </row>
     <row r="70" ht="10.5" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E70" s="1">
         <v>2.0</v>
@@ -12569,16 +13607,16 @@
     </row>
     <row r="71" ht="10.5" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E71" s="1">
         <v>5.0</v>
@@ -12610,16 +13648,16 @@
     </row>
     <row r="72" ht="10.5" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E72" s="1">
         <v>6.0</v>
@@ -12638,7 +13676,7 @@
         <v>6.0</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -12651,16 +13689,16 @@
     </row>
     <row r="73" ht="10.5" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E73" s="1">
         <v>4.0</v>
@@ -12679,7 +13717,7 @@
         <v>12.0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -12692,16 +13730,16 @@
     </row>
     <row r="74" ht="10.5" customHeight="1">
       <c r="A74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="D74" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E74" s="1">
         <v>9.0</v>
@@ -12720,7 +13758,7 @@
         <v>16.0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -12733,16 +13771,16 @@
     </row>
     <row r="75" ht="10.5" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E75" s="1">
         <v>12.0</v>
@@ -12761,7 +13799,7 @@
         <v>14.0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -12774,16 +13812,16 @@
     </row>
     <row r="76" ht="10.5" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E76" s="1">
         <v>14.0</v>
@@ -12802,7 +13840,7 @@
         <v>16.0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -12815,16 +13853,16 @@
     </row>
     <row r="77" ht="10.5" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E77" s="1">
         <v>16.0</v>
@@ -12845,7 +13883,7 @@
         <v>18.0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -12858,13 +13896,13 @@
     </row>
     <row r="78" ht="10.5" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -12901,16 +13939,16 @@
     </row>
     <row r="79" ht="10.5" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E79" s="1">
         <v>2.0</v>
@@ -12931,7 +13969,7 @@
         <v>6.0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -12944,16 +13982,16 @@
     </row>
     <row r="80" ht="10.5" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E80" s="1">
         <v>4.0</v>
@@ -12972,7 +14010,7 @@
         <v>12.0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -12985,16 +14023,16 @@
     </row>
     <row r="81" ht="10.5" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E81" s="1">
         <v>3.0</v>
@@ -13013,7 +14051,7 @@
         <v>16.0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -13026,16 +14064,16 @@
     </row>
     <row r="82" ht="10.5" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E82" s="1">
         <v>6.0</v>
@@ -13054,7 +14092,7 @@
         <v>2.0</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -13067,16 +14105,16 @@
     </row>
     <row r="83" ht="10.5" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E83" s="1">
         <v>9.0</v>
@@ -13095,7 +14133,7 @@
         <v>15.0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -13108,16 +14146,16 @@
     </row>
     <row r="84" ht="10.5" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E84" s="1">
         <v>10.0</v>
@@ -13136,7 +14174,7 @@
         <v>14.0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -13149,16 +14187,16 @@
     </row>
     <row r="85" ht="10.5" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E85" s="1">
         <v>16.0</v>
@@ -13177,7 +14215,7 @@
         <v>18.0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -13190,16 +14228,16 @@
     </row>
     <row r="86" ht="10.5" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E86" s="1">
         <v>14.0</v>
@@ -13218,7 +14256,7 @@
         <v>16.0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -13231,16 +14269,16 @@
     </row>
     <row r="87" ht="10.5" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E87" s="1">
         <v>6.0</v>
@@ -13259,7 +14297,7 @@
         <v>11.0</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -13271,18 +14309,39 @@
       <c r="R87" s="3"/>
     </row>
     <row r="88" ht="10.5" customHeight="1">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="A88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G88" s="1" t="str">
+        <f t="shared" ref="G88:G96" si="3">IF(AND(H88&gt;=0,H88&lt;7),  "simple",
+ IF(AND(H88&gt;=7,H88&lt;14), "medium", 
+ IF(AND(H88&gt;=14,H88&lt;21), "complex", "Undefined")))</f>
+        <v>complex</v>
+      </c>
+      <c r="H88" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -13293,18 +14352,37 @@
       <c r="R88" s="3"/>
     </row>
     <row r="89" ht="10.5" customHeight="1">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G89" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>medium</v>
+      </c>
+      <c r="H89" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -13315,18 +14393,37 @@
       <c r="R89" s="3"/>
     </row>
     <row r="90" ht="10.5" customHeight="1">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C90" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G90" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>medium</v>
+      </c>
+      <c r="H90" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -13337,18 +14434,37 @@
       <c r="R90" s="3"/>
     </row>
     <row r="91" ht="10.5" customHeight="1">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+      <c r="A91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C91" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G91" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>simple</v>
+      </c>
+      <c r="H91" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -13359,18 +14475,37 @@
       <c r="R91" s="3"/>
     </row>
     <row r="92" ht="10.5" customHeight="1">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C92" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G92" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>simple</v>
+      </c>
+      <c r="H92" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -13381,18 +14516,37 @@
       <c r="R92" s="3"/>
     </row>
     <row r="93" ht="10.5" customHeight="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C93" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G93" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>simple</v>
+      </c>
+      <c r="H93" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -13403,18 +14557,37 @@
       <c r="R93" s="3"/>
     </row>
     <row r="94" ht="10.5" customHeight="1">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C94" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G94" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>simple</v>
+      </c>
+      <c r="H94" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -13425,18 +14598,37 @@
       <c r="R94" s="3"/>
     </row>
     <row r="95" ht="10.5" customHeight="1">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C95" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G95" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>complex</v>
+      </c>
+      <c r="H95" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -13447,18 +14639,37 @@
       <c r="R95" s="3"/>
     </row>
     <row r="96" ht="10.5" customHeight="1">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C96" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G96" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>medium</v>
+      </c>
+      <c r="H96" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -13471,9 +14682,7 @@
     <row r="97" ht="10.5" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="C97" s="4"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -13493,9 +14702,7 @@
     <row r="98" ht="10.5" customHeight="1">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="C98" s="4"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -13515,9 +14722,7 @@
     <row r="99" ht="10.5" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="C99" s="4"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -13537,9 +14742,7 @@
     <row r="100" ht="10.5" customHeight="1">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
-      <c r="C100" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="C100" s="4"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -13559,9 +14762,7 @@
     <row r="101" ht="10.5" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
-      <c r="C101" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="C101" s="4"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -13581,9 +14782,7 @@
     <row r="102" ht="10.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="C102" s="4"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -13603,9 +14802,7 @@
     <row r="103" ht="10.5" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="C103" s="4"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -13625,9 +14822,7 @@
     <row r="104" ht="10.5" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="C104" s="4"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -13647,9 +14842,7 @@
     <row r="105" ht="10.5" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
-      <c r="C105" s="4" t="s">
-        <v>217</v>
-      </c>
+      <c r="C105" s="4"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -13669,9 +14862,7 @@
     <row r="106" ht="10.5" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
-      <c r="C106" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="C106" s="4"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -13691,7 +14882,7 @@
     <row r="107" ht="10.5" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
+      <c r="C107" s="4"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -13788,7 +14979,7 @@
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
     </row>
-    <row r="112" ht="9.0" customHeight="1">
+    <row r="112" ht="10.5" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -31591,6 +32782,7 @@
     <row r="1002" ht="9.0" customHeight="1">
       <c r="A1002" s="6"/>
       <c r="B1002" s="6"/>
+      <c r="C1002" s="6"/>
       <c r="D1002" s="3"/>
       <c r="E1002" s="3"/>
       <c r="F1002" s="3"/>
@@ -31626,7 +32818,31 @@
       <c r="Q1003" s="3"/>
       <c r="R1003" s="3"/>
     </row>
+    <row r="1004" ht="9.0" customHeight="1">
+      <c r="A1004" s="6"/>
+      <c r="B1004" s="6"/>
+      <c r="D1004" s="3"/>
+      <c r="E1004" s="3"/>
+      <c r="F1004" s="3"/>
+      <c r="G1004" s="3"/>
+      <c r="H1004" s="3"/>
+      <c r="I1004" s="3"/>
+      <c r="J1004" s="3"/>
+      <c r="K1004" s="3"/>
+      <c r="L1004" s="3"/>
+      <c r="M1004" s="3"/>
+      <c r="N1004" s="3"/>
+      <c r="O1004" s="3"/>
+      <c r="P1004" s="3"/>
+      <c r="Q1004" s="3"/>
+      <c r="R1004" s="3"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1004">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>" =COUNTIF (D:D, D2)&gt;1"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -31692,7 +32908,7 @@
         <v>113.0</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="T1" s="13"/>
     </row>
@@ -31706,37 +32922,37 @@
         <v>use_case_name</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="8" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="R2" s="15" t="str">
         <f>CONCATENATE(D1:D99,H1:H99)</f>
@@ -31800,7 +33016,7 @@
         <v>Risk Reporting</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D4" s="19" t="str">
         <f t="shared" si="1"/>
@@ -31815,7 +33031,7 @@
         <v>1,</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H4" s="19" t="str">
         <f t="shared" si="4"/>
@@ -31831,21 +33047,21 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="20"/>
       <c r="O4" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
@@ -31888,14 +33104,14 @@
       <c r="K5" s="18"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N5" s="20"/>
       <c r="O5" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="15" t="str">
@@ -31928,7 +33144,7 @@
         <v/>
       </c>
       <c r="G6" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H6" s="19" t="str">
         <f t="shared" si="4"/>
@@ -31945,14 +33161,14 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="21"/>
       <c r="R6" s="15"/>
@@ -31997,18 +33213,18 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="21"/>
       <c r="R7" s="12" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -32036,7 +33252,7 @@
         <v/>
       </c>
       <c r="G8" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H8" s="19" t="str">
         <f t="shared" si="4"/>
@@ -32052,15 +33268,15 @@
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="20"/>
       <c r="O8" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="20"/>
       <c r="R8" s="15" t="str">
@@ -32110,13 +33326,13 @@
       <c r="M9" s="18"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="22"/>
@@ -32162,14 +33378,14 @@
       <c r="M10" s="18"/>
       <c r="N10" s="20"/>
       <c r="O10" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="20"/>
       <c r="R10" s="12" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -32212,14 +33428,14 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N11" s="21"/>
       <c r="O11" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="21"/>
       <c r="R11" s="15" t="str">
@@ -32239,7 +33455,7 @@
         <v>Portfolio Rebalancing</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D12" s="19" t="str">
         <f t="shared" si="1"/>
@@ -32268,20 +33484,20 @@
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="22"/>
@@ -32327,13 +33543,13 @@
       <c r="M13" s="18"/>
       <c r="N13" s="20"/>
       <c r="O13" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="22"/>
@@ -32377,12 +33593,12 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N14" s="20"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="21"/>
       <c r="R14" s="15"/>
@@ -32427,17 +33643,17 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N15" s="20"/>
       <c r="O15" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="R15" s="15"/>
       <c r="S15" s="22"/>
@@ -32466,7 +33682,7 @@
         <v/>
       </c>
       <c r="G16" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H16" s="19" t="str">
         <f t="shared" si="4"/>
@@ -32484,7 +33700,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="18"/>
       <c r="N16" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
@@ -32516,7 +33732,7 @@
         <v/>
       </c>
       <c r="G17" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H17" s="19" t="str">
         <f t="shared" si="4"/>
@@ -32534,16 +33750,16 @@
       <c r="L17" s="18"/>
       <c r="M17" s="23"/>
       <c r="N17" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="R17" s="15"/>
       <c r="S17" s="22"/>
@@ -32651,7 +33867,7 @@
         <v>Investment Analysis</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D20" s="19" t="str">
         <f t="shared" si="1"/>
@@ -32666,7 +33882,7 @@
         <v>17,</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H20" s="19" t="str">
         <f t="shared" si="4"/>
@@ -32682,17 +33898,17 @@
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N20" s="20"/>
       <c r="O20" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="21"/>
       <c r="R20" s="15"/>
@@ -32709,7 +33925,7 @@
         <v>Suspicious activity report prepopulation</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D21" s="19" t="str">
         <f t="shared" si="1"/>
@@ -32724,7 +33940,7 @@
         <v>18,</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H21" s="19" t="str">
         <f t="shared" si="4"/>
@@ -32739,23 +33955,23 @@
         <v>18,</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="22"/>
@@ -32771,7 +33987,7 @@
         <v>Early warning credit risk monitoring</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D22" s="19" t="str">
         <f t="shared" si="1"/>
@@ -32786,7 +34002,7 @@
         <v>19,</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H22" s="19" t="str">
         <f t="shared" si="4"/>
@@ -32801,20 +34017,20 @@
         <v>19,</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M22" s="18"/>
       <c r="N22" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="20"/>
       <c r="R22" s="15"/>
@@ -32862,7 +34078,7 @@
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
       <c r="P23" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="R23" s="15"/>
@@ -32909,13 +34125,13 @@
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
       <c r="O24" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="R24" s="15"/>
       <c r="S24" s="22"/>
@@ -32970,7 +34186,7 @@
     <row r="26" ht="10.5" customHeight="1">
       <c r="A26" s="24" t="str">
         <f>use_case_master_radar!C25</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B26" s="17" t="str">
         <f>use_case_master_radar!D25</f>
@@ -33568,7 +34784,7 @@
     <row r="39" ht="10.5" customHeight="1">
       <c r="A39" s="24" t="str">
         <f>use_case_master_radar!C38</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B39" s="17" t="str">
         <f>use_case_master_radar!D38</f>
@@ -34214,7 +35430,7 @@
     <row r="53" ht="10.5" customHeight="1">
       <c r="A53" s="24" t="str">
         <f>use_case_master_radar!C52</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B53" s="17" t="str">
         <f>use_case_master_radar!D52</f>
@@ -34352,7 +35568,7 @@
     <row r="56" ht="10.5" customHeight="1">
       <c r="A56" s="24" t="str">
         <f>use_case_master_radar!C55</f>
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B56" s="17" t="str">
         <f>use_case_master_radar!D55</f>
@@ -34490,7 +35706,7 @@
     <row r="59" ht="10.5" customHeight="1">
       <c r="A59" s="24" t="str">
         <f>use_case_master_radar!C58</f>
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B59" s="17" t="str">
         <f>use_case_master_radar!D58</f>
@@ -34536,7 +35752,7 @@
     <row r="60" ht="10.5" customHeight="1">
       <c r="A60" s="24" t="str">
         <f>use_case_master_radar!C59</f>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B60" s="17" t="str">
         <f>use_case_master_radar!D59</f>
@@ -34628,7 +35844,7 @@
     <row r="62" ht="10.5" customHeight="1">
       <c r="A62" s="24" t="str">
         <f>use_case_master_radar!C61</f>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B62" s="17" t="str">
         <f>use_case_master_radar!D61</f>
@@ -34720,7 +35936,7 @@
     <row r="64" ht="10.5" customHeight="1">
       <c r="A64" s="24" t="str">
         <f>use_case_master_radar!C63</f>
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B64" s="17" t="str">
         <f>use_case_master_radar!D63</f>
@@ -34858,7 +36074,7 @@
     <row r="67" ht="10.5" customHeight="1">
       <c r="A67" s="24" t="str">
         <f>use_case_master_radar!C66</f>
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B67" s="17" t="str">
         <f>use_case_master_radar!D66</f>
@@ -34904,7 +36120,7 @@
     <row r="68" ht="10.5" customHeight="1">
       <c r="A68" s="24" t="str">
         <f>use_case_master_radar!C67</f>
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B68" s="17" t="str">
         <f>use_case_master_radar!D67</f>
@@ -34996,7 +36212,7 @@
     <row r="70" ht="10.5" customHeight="1">
       <c r="A70" s="24" t="str">
         <f>use_case_master_radar!C69</f>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B70" s="17" t="str">
         <f>use_case_master_radar!D70</f>
@@ -55653,31 +56869,31 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="31" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="N1" s="12"/>
       <c r="P1" s="13"/>
@@ -55692,10 +56908,10 @@
         <v>sub_unit</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="E2" s="31">
         <v>1000.0</v>
@@ -55775,25 +56991,25 @@
         <v>Risk Reporting</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="22"/>
@@ -55821,14 +57037,14 @@
       <c r="G5" s="18"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="15"/>
@@ -55854,19 +57070,19 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M6" s="21"/>
       <c r="N6" s="15"/>
@@ -55895,14 +57111,14 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="12"/>
@@ -55928,19 +57144,19 @@
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="15"/>
@@ -55971,13 +57187,13 @@
       <c r="I9" s="18"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N9" s="15"/>
       <c r="O9" s="22"/>
@@ -56007,10 +57223,10 @@
       <c r="I10" s="18"/>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="12"/>
@@ -56039,14 +57255,14 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="15"/>
@@ -56071,25 +57287,25 @@
         <v>Portfolio Rebalancing</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N12" s="15"/>
       <c r="O12" s="22"/>
@@ -56119,13 +57335,13 @@
       <c r="I13" s="18"/>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="22"/>
@@ -56153,12 +57369,12 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="15"/>
@@ -56187,17 +57403,17 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="22"/>
@@ -56222,13 +57438,13 @@
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="23"/>
       <c r="I16" s="18"/>
       <c r="J16" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
@@ -56256,22 +57472,22 @@
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="23"/>
       <c r="J17" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="22"/>
@@ -56355,24 +57571,24 @@
         <v>Investment Analysis</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="15"/>
@@ -56397,29 +57613,29 @@
         <v>Suspicious activity report prepopulation</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="22"/>
@@ -56443,26 +57659,26 @@
         <v>Early warning credit risk monitoring</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="15"/>
@@ -56494,7 +57710,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M23" s="21"/>
       <c r="N23" s="15"/>
@@ -56525,13 +57741,13 @@
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
       <c r="K24" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="22"/>
@@ -56578,7 +57794,7 @@
       </c>
       <c r="C26" s="24" t="str">
         <f>use_case_master_radar!C25</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D26" s="17" t="str">
         <f>use_case_master_radar!D25</f>
@@ -56968,7 +58184,7 @@
       </c>
       <c r="C39" s="24" t="str">
         <f>use_case_master_radar!C38</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D39" s="17" t="str">
         <f>use_case_master_radar!D38</f>
@@ -57382,7 +58598,7 @@
     <row r="53" ht="10.5" customHeight="1">
       <c r="A53" s="24" t="str">
         <f>use_case_master_radar!A52</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B53" s="24" t="str">
         <f>use_case_master_radar!B52</f>
@@ -57390,7 +58606,7 @@
       </c>
       <c r="C53" s="24" t="str">
         <f>use_case_master_radar!C52</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D53" s="17" t="str">
         <f>use_case_master_radar!D52</f>
@@ -57412,7 +58628,7 @@
     <row r="54" ht="10.5" customHeight="1">
       <c r="A54" s="24" t="str">
         <f>use_case_master_radar!A53</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B54" s="24" t="str">
         <f>use_case_master_radar!B53</f>
@@ -57442,7 +58658,7 @@
     <row r="55" ht="10.5" customHeight="1">
       <c r="A55" s="24" t="str">
         <f>use_case_master_radar!A54</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B55" s="24" t="str">
         <f>use_case_master_radar!B54</f>
@@ -57472,7 +58688,7 @@
     <row r="56" ht="10.5" customHeight="1">
       <c r="A56" s="24" t="str">
         <f>use_case_master_radar!A55</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B56" s="24" t="str">
         <f>use_case_master_radar!B55</f>
@@ -57480,7 +58696,7 @@
       </c>
       <c r="C56" s="24" t="str">
         <f>use_case_master_radar!C55</f>
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D56" s="17" t="str">
         <f>use_case_master_radar!D55</f>
@@ -57502,7 +58718,7 @@
     <row r="57" ht="10.5" customHeight="1">
       <c r="A57" s="24" t="str">
         <f>use_case_master_radar!A56</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B57" s="24" t="str">
         <f>use_case_master_radar!B56</f>
@@ -57532,7 +58748,7 @@
     <row r="58" ht="10.5" customHeight="1">
       <c r="A58" s="24" t="str">
         <f>use_case_master_radar!A57</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B58" s="24" t="str">
         <f>use_case_master_radar!B57</f>
@@ -57562,7 +58778,7 @@
     <row r="59" ht="10.5" customHeight="1">
       <c r="A59" s="24" t="str">
         <f>use_case_master_radar!A58</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B59" s="24" t="str">
         <f>use_case_master_radar!B58</f>
@@ -57570,7 +58786,7 @@
       </c>
       <c r="C59" s="24" t="str">
         <f>use_case_master_radar!C58</f>
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D59" s="17" t="str">
         <f>use_case_master_radar!D58</f>
@@ -57592,7 +58808,7 @@
     <row r="60" ht="10.5" customHeight="1">
       <c r="A60" s="24" t="str">
         <f>use_case_master_radar!A59</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B60" s="24" t="str">
         <f>use_case_master_radar!B59</f>
@@ -57600,7 +58816,7 @@
       </c>
       <c r="C60" s="24" t="str">
         <f>use_case_master_radar!C59</f>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D60" s="17" t="str">
         <f>use_case_master_radar!D59</f>
@@ -57622,7 +58838,7 @@
     <row r="61" ht="10.5" customHeight="1">
       <c r="A61" s="24" t="str">
         <f>use_case_master_radar!A60</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B61" s="24" t="str">
         <f>use_case_master_radar!B60</f>
@@ -57652,7 +58868,7 @@
     <row r="62" ht="10.5" customHeight="1">
       <c r="A62" s="24" t="str">
         <f>use_case_master_radar!A61</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B62" s="24" t="str">
         <f>use_case_master_radar!B61</f>
@@ -57660,7 +58876,7 @@
       </c>
       <c r="C62" s="24" t="str">
         <f>use_case_master_radar!C61</f>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D62" s="17" t="str">
         <f>use_case_master_radar!D61</f>
@@ -57682,7 +58898,7 @@
     <row r="63" ht="10.5" customHeight="1">
       <c r="A63" s="24" t="str">
         <f>use_case_master_radar!A62</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B63" s="24" t="str">
         <f>use_case_master_radar!B62</f>
@@ -57712,7 +58928,7 @@
     <row r="64" ht="10.5" customHeight="1">
       <c r="A64" s="24" t="str">
         <f>use_case_master_radar!A63</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B64" s="24" t="str">
         <f>use_case_master_radar!B63</f>
@@ -57720,7 +58936,7 @@
       </c>
       <c r="C64" s="24" t="str">
         <f>use_case_master_radar!C63</f>
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D64" s="17" t="str">
         <f>use_case_master_radar!D63</f>
@@ -57742,7 +58958,7 @@
     <row r="65" ht="10.5" customHeight="1">
       <c r="A65" s="24" t="str">
         <f>use_case_master_radar!A64</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B65" s="24" t="str">
         <f>use_case_master_radar!B64</f>
@@ -57772,7 +58988,7 @@
     <row r="66" ht="10.5" customHeight="1">
       <c r="A66" s="24" t="str">
         <f>use_case_master_radar!A65</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B66" s="24" t="str">
         <f>use_case_master_radar!B65</f>
@@ -57802,7 +59018,7 @@
     <row r="67" ht="10.5" customHeight="1">
       <c r="A67" s="24" t="str">
         <f>use_case_master_radar!A66</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B67" s="24" t="str">
         <f>use_case_master_radar!B66</f>
@@ -57810,7 +59026,7 @@
       </c>
       <c r="C67" s="24" t="str">
         <f>use_case_master_radar!C66</f>
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="str">
         <f>use_case_master_radar!D66</f>
@@ -57832,7 +59048,7 @@
     <row r="68" ht="10.5" customHeight="1">
       <c r="A68" s="24" t="str">
         <f>use_case_master_radar!A67</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B68" s="24" t="str">
         <f>use_case_master_radar!B67</f>
@@ -57840,7 +59056,7 @@
       </c>
       <c r="C68" s="24" t="str">
         <f>use_case_master_radar!C67</f>
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D68" s="17" t="str">
         <f>use_case_master_radar!D67</f>
@@ -57862,7 +59078,7 @@
     <row r="69" ht="10.5" customHeight="1">
       <c r="A69" s="24" t="str">
         <f>use_case_master_radar!A68</f>
-        <v>Retail</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B69" s="24" t="str">
         <f>use_case_master_radar!B68</f>
@@ -57892,7 +59108,7 @@
     <row r="70" ht="10.5" customHeight="1">
       <c r="A70" s="24" t="str">
         <f>use_case_master_radar!A70</f>
-        <v>Corporate Institutional</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B70" s="24" t="str">
         <f>use_case_master_radar!B70</f>
@@ -57900,7 +59116,7 @@
       </c>
       <c r="C70" s="24" t="str">
         <f>use_case_master_radar!C69</f>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D70" s="17" t="str">
         <f>use_case_master_radar!D70</f>
@@ -57923,7 +59139,7 @@
     <row r="71" ht="10.5" customHeight="1">
       <c r="A71" s="24" t="str">
         <f>use_case_master_radar!A71</f>
-        <v>Corporate Institutional</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B71" s="24" t="str">
         <f>use_case_master_radar!B71</f>
@@ -57954,7 +59170,7 @@
     <row r="72" ht="10.5" customHeight="1">
       <c r="A72" s="24" t="str">
         <f>use_case_master_radar!A72</f>
-        <v>Corporate Institutional</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B72" s="24" t="str">
         <f>use_case_master_radar!B72</f>
@@ -57985,7 +59201,7 @@
     <row r="73">
       <c r="A73" s="24" t="str">
         <f>use_case_master_radar!A73</f>
-        <v>Corporate Institutional</v>
+        <v>Retail &amp; Corporate</v>
       </c>
       <c r="B73" s="24" t="str">
         <f>use_case_master_radar!B73</f>
@@ -58015,16 +59231,16 @@
     </row>
     <row r="74">
       <c r="A74" s="24" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
@@ -58041,16 +59257,16 @@
     </row>
     <row r="75">
       <c r="A75" s="24" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
@@ -58067,16 +59283,16 @@
     </row>
     <row r="76">
       <c r="A76" s="24" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
@@ -58093,16 +59309,16 @@
     </row>
     <row r="77">
       <c r="A77" s="24" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
@@ -58119,16 +59335,16 @@
     </row>
     <row r="78">
       <c r="A78" s="24" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
@@ -58145,16 +59361,16 @@
     </row>
     <row r="79">
       <c r="A79" s="24" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
@@ -58171,16 +59387,16 @@
     </row>
     <row r="80">
       <c r="A80" s="24" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
@@ -58197,16 +59413,16 @@
     </row>
     <row r="81">
       <c r="A81" s="24" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D81" s="37" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
@@ -58223,16 +59439,16 @@
     </row>
     <row r="82">
       <c r="A82" s="24" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
